--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -453,6 +453,36 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5621813206</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Saad</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ar</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>False</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-11-11 11:05:59</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-11 11:05:59</t>
+          <t>2025-11-11 11:08:14</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -483,6 +483,36 @@
         </is>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>8182750073</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Maher</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>en</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>True</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>UTC</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-11-11 11:45:48</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-11 11:45:48</t>
+          <t>2025-11-11 11:50:29</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-11 11:50:29</t>
+          <t>2025-11-11 11:51:44</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -469,7 +469,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -479,7 +479,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-11 11:08:14</t>
+          <t>2025-11-11 12:44:02</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-11 11:51:44</t>
+          <t>2025-11-11 14:34:08</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-11 14:34:08</t>
+          <t>2025-11-11 20:07:56</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-11 20:07:56</t>
+          <t>2025-11-11 21:14:35</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-11 21:14:35</t>
+          <t>2025-11-12 06:26:09</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -494,12 +494,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>en</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -509,7 +509,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-12 06:26:09</t>
+          <t>2025-11-12 06:55:37</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,6 +452,16 @@
           <t>Last Updated</t>
         </is>
       </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Last Activity</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>Last Welcome</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -480,6 +490,11 @@
       <c r="F2" t="inlineStr">
         <is>
           <t>2025-11-11 12:44:02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2025-11-12 07:46:16</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-11-12 07:46:16</t>
+          <t>2025-11-12 08:43:06</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-12 06:55:37</t>
+          <t>2025-11-12 09:06:47</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>True</t>
+          <t>False</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-11 12:44:02</t>
+          <t>2025-11-12 09:48:39</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -494,7 +494,7 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-11-12 08:43:06</t>
+          <t>2025-11-12 09:57:49</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>False</t>
+          <t>True</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
@@ -489,7 +489,7 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2025-11-12 09:48:39</t>
+          <t>2025-11-12 10:32:15</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
@@ -524,7 +524,7 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-12 09:06:47</t>
+          <t>2025-11-12 10:32:15</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -494,7 +494,12 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>2025-11-12 09:57:49</t>
+          <t>2025-11-12 11:31:26</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>2025-11-12 11:00:43</t>
         </is>
       </c>
     </row>
@@ -509,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>en</t>
+          <t>ar</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -524,7 +529,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-12 10:32:15</t>
+          <t>2025-11-12 11:07:50</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2025-11-12 11:08:05</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -537,6 +537,11 @@
           <t>2025-11-12 11:08:05</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-11-12 12:10:43</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -529,17 +529,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-12 11:07:50</t>
+          <t>2025-11-12 12:19:07</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-11-12 11:08:05</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-11-12 12:10:43</t>
+          <t>2025-11-12 12:20:14</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 11:00:43</t>
+          <t>2025-11-12 12:41:14</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -537,6 +537,11 @@
           <t>2025-11-12 12:20:14</t>
         </is>
       </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-11-12 13:22:34</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 12:41:14</t>
+          <t>2025-11-12 13:42:34</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -514,7 +514,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>ar</t>
+          <t>en</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -529,17 +529,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2025-11-12 12:19:07</t>
+          <t>2025-11-12 14:20:26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>2025-11-12 12:20:14</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>2025-11-12 13:22:34</t>
+          <t>2025-11-12 14:20:36</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 13:42:34</t>
+          <t>2025-11-12 14:47:36</t>
         </is>
       </c>
     </row>
@@ -535,6 +535,11 @@
       <c r="G3" t="inlineStr">
         <is>
           <t>2025-11-12 14:20:36</t>
+        </is>
+      </c>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>2025-11-12 15:27:35</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 14:47:36</t>
+          <t>2025-11-12 15:57:35</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-12 15:27:35</t>
+          <t>2025-11-12 16:36:31</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 15:57:35</t>
+          <t>2025-11-12 17:06:31</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-12 16:36:31</t>
+          <t>2025-11-12 17:36:31</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 17:06:31</t>
+          <t>2025-11-12 18:06:31</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 18:06:31</t>
+          <t>2025-11-12 19:06:51</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-12 17:36:31</t>
+          <t>2025-11-12 18:46:51</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 19:06:51</t>
+          <t>2025-11-12 20:16:51</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-12 18:46:51</t>
+          <t>2025-11-12 19:56:51</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-12 20:16:51</t>
+          <t>2025-11-13 02:10:02</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-12 19:56:51</t>
+          <t>2025-11-13 02:10:02</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-13 02:10:02</t>
+          <t>2025-11-13 06:25:35</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-13 02:10:02</t>
+          <t>2025-11-13 06:25:35</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-13 06:25:35</t>
+          <t>2025-11-13 09:55:35</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-13 06:25:35</t>
+          <t>2025-11-13 09:55:36</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-13 09:55:35</t>
+          <t>2025-11-13 18:59:40</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-13 09:55:36</t>
+          <t>2025-11-13 18:59:40</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-13 18:59:40</t>
+          <t>2025-11-14 12:27:14</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-13 18:59:40</t>
+          <t>2025-11-14 12:27:14</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-14 12:27:14</t>
+          <t>2025-11-14 19:44:02</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-14 12:27:14</t>
+          <t>2025-11-14 19:44:03</t>
         </is>
       </c>
     </row>

--- a/user_settings.xlsx
+++ b/user_settings.xlsx
@@ -499,7 +499,7 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>2025-11-14 19:44:02</t>
+          <t>2025-11-19 16:30:32</t>
         </is>
       </c>
     </row>
@@ -539,7 +539,7 @@
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>2025-11-14 19:44:03</t>
+          <t>2025-11-19 16:30:33</t>
         </is>
       </c>
     </row>
